--- a/data/Game/Hobby.xlsx
+++ b/data/Game/Hobby.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F90B834-03E6-44E0-B398-3567368CDE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3A26C6-DFD6-46FA-92DD-2FE8A4AB037C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="4035" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hobby" sheetId="1" r:id="rId1"/>
@@ -1106,16 +1106,16 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>110</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>116</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>125</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>128</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>133</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>139</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>142</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>145</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>148</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>151</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>154</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>157</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>163</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>166</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>169</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>174</v>
       </c>

--- a/data/Game/Hobby.xlsx
+++ b/data/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.222 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>
